--- a/final_df_proba.xlsx
+++ b/final_df_proba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\ARKAD\MODEL-VOLUMEN\models\Open-closeVolum_v3\out\accuracy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A5D058-1190-4B41-B88E-F5891D4257BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7C1B7-ED96-4879-A562-5A7FC86821E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,9 +70,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +84,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +129,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +656,7 @@
       <c r="C7" s="2">
         <v>45184</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7">
@@ -6630,7 +6639,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G253" si="3">IF(F195&gt;K$2,1,0)</f>
+        <f t="shared" ref="G195:G252" si="3">IF(F195&gt;K$2,1,0)</f>
         <v>1</v>
       </c>
       <c r="H195">
